--- a/文化１問題/文化100.xlsx
+++ b/文化１問題/文化100.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mugisama/Desktop/HagiQ/文化１問題/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F49671-B4B4-7F4E-B809-5BA5C267CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBFB48-8932-4A46-BC9D-CA53332A5113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15760" xr2:uid="{082E56DC-2CF4-9D4D-ADD9-0B6DB7C9A977}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{082E56DC-2CF4-9D4D-ADD9-0B6DB7C9A977}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="１００問" sheetId="1" r:id="rId1"/>
+    <sheet name="Level1" sheetId="3" r:id="rId2"/>
+    <sheet name="Level2" sheetId="4" r:id="rId3"/>
+    <sheet name="Level3" sheetId="5" r:id="rId4"/>
+    <sheet name="Level4" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="606">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -151,28 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.三島では正月に６畳から８畳分もある鬼の絵を描いた鬼ヨウズと呼ばれる凧をあげるが、その目的は？(3)</t>
-    <rPh sb="2" eb="4">
-      <t>ミシマ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウガ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t xml:space="preserve">オニ </t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エヲ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オニ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t xml:space="preserve">タコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>豊作の祈願</t>
     <rPh sb="0" eb="2">
       <t>ホウサク</t>
@@ -319,34 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.三島では正月の間に口にしてはならない「忌み言葉」があるが、その中で「寝る」という言葉は何と言い換える？(4)</t>
-    <rPh sb="2" eb="4">
-      <t>ミシマ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウガ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t xml:space="preserve">イミ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コトバ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ネル</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t xml:space="preserve">ナント </t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イイカエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>便所の傍ら</t>
     <rPh sb="0" eb="2">
       <t>ベンジョ</t>
@@ -985,28 +939,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11.萩地方の農村部で行われる他右t￥え後の慰労会を何と呼ぶ？(16)</t>
-    <rPh sb="3" eb="6">
-      <t>ハギティ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ノウソn</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナワレ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>イロウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">ナントヨブ </t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t xml:space="preserve">ヨブ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>田植え後の道具仕舞いや慰労のことをドロオシという。ちなみにテマガエ（手間換え）は近隣同士の労力交換のことで、サナボリは田植え終了を感謝して田の神を送る儀式のこと。</t>
     <rPh sb="0" eb="2">
       <t>タウエ</t>
@@ -4066,19 +3998,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>51.萩地方でカタシと呼ぶある植物は、種から油をトルコとができる。このある植物とは？(107)</t>
-    <rPh sb="3" eb="6">
-      <t>ハギティ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タネ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アブラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴマ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8253,6 +8172,2612 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.萩地方の農村部で行われる田植え後の慰労会を何と呼ぶ？(16)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ノウソn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナワレ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タウエ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>イロウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ナントヨブ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ヨブ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51.萩地方でカタシと呼ぶある植物は、種から油を摂ることができる。このある植物とは？(107)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">トル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.浜崎の住吉神社の夏祭りにおいて、江戸時代から巡行が続いている華やかな山車(だし)は、御船と何？(23)</t>
+    <rPh sb="2" eb="4">
+      <t>ハマサキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>スミヨセィ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>エドジダイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュンコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツヅイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ダシ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">📴ナ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.住吉祭において、神社の神輿を担いできた伝統的組織があるが、それはどれ？(25)</t>
+    <rPh sb="2" eb="5">
+      <t>スミヨセィ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンジャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミコセィ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カツイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.住吉神社の神輿を伝統的組織が担ぐ時の掛け声は、次のうちどれ？(27)</t>
+    <rPh sb="2" eb="6">
+      <t>スミヨセィ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミコ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>デントウテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カツグ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.萩地方の蒲鉾は「焼き抜き」という製法で作られる。これはどのような製法？(38)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カマボコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヤキヌ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツクラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.萩地方で一夜干しや南蛮漬けとしてよく食されるユニークな呼び名の魚はどれ？(40)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチヤ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンバn</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨビナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.萩地方で客事の際によく作られる「いとこ煮」に入っている豆はどれ？(39)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キャクジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">コト </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニモノ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.かつて三角州内の低湿な場所で多くみられたトンボを、はぎの子どもたちは何を使って捕っていた？(49)</t>
+    <rPh sb="5" eb="8">
+      <t>サンカクス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシテゥ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バセィオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t xml:space="preserve">トッテイタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.伊藤博文旧宅敷地にある像は何製？(96)</t>
+    <rPh sb="2" eb="6">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ゾウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.田万川地域の小川で桃・梨・葡萄などの果樹園が盛んに行われている台地の名前は？(131)</t>
+    <rPh sb="2" eb="7">
+      <t>タマガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">モモ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ナシ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブドウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カジュエn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サカn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナワレ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナマエハ?</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.福栄地域の特産品で野菜や果物をそのまま炭にした商品の名前は？(139)</t>
+    <rPh sb="3" eb="5">
+      <t>フクエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トクサn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クダモノ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒn</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.萩博物館の建物の一部で資料をもとに復元されたのはどこ？(172)</t>
+    <rPh sb="3" eb="7">
+      <t>ハギハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フクゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.萩地方の方言で、親友のことを何という？(72)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンユウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.萩地方では、苗字ではなく別の呼び名で呼ぶことがあるが、その呼び名を何と言う？(79)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベテゥ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.国指定重要文化財菊屋家住宅などに見られる瓦を貼り付けている壁を何と言う？(163)</t>
+    <rPh sb="3" eb="6">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ブンカザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キクヤ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">イエ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カワラ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.毎年4月29日に川上で実施される川上地域の無形文化財の行事はなに?(9)</t>
+    <rPh sb="3" eb="5">
+      <t>マイトセィ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッセィ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="24" eb="29">
+      <t>ムケイブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ギョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.萩地方の農村部で行われる田植え後の慰労会を何と呼ぶ？(16)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ノウソn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナワレ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タウエ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>イロウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ナントヨブ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ヨブ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.むつみ地域の木部下野田地区において、牛馬の安全祈願のために行われている火祭りはどれ？(19)</t>
+    <rPh sb="9" eb="13">
+      <t>キベセィ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">タ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ギュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キガンノ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒマツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.大島では祭や客事の際、炊いたご飯に煮込んだ加薬を合わせた混ぜご飯が作られる。この混ぜ飯を何と呼ぶ？(42)</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">オオシマ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マツリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キャクゴト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">コト </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイタゴハ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニコンダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カヤク </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アワセ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツクラレ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マゼ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19.むつみ地方の方言で「おごる」とは何を意味する？(76)</t>
+    <rPh sb="6" eb="8">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20.萩王還の中で急な上り坂と石畳で有名な一升谷の名前の由来となったものは何？(84)</t>
+    <rPh sb="3" eb="4">
+      <t>ハギオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンレキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノボリサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッショウダニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.萩特産のチリメンジャコは、何の稚魚を漁獲し釜茹でした後に干したもの？(120)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギトクサn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナンノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チギョヲ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ギョカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カマユデ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アトニ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22.萩市民間の夜景を彩るホールの照明デザインと同じ人による照明デザインが施されているのはどれ？(200)</t>
+    <rPh sb="3" eb="7">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イロドル</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ホドコサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23.福栄地域のサンサン広場に設置されているものはどれ？(138)</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">フクエ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24.三見地区の眼鏡橋と呼ばれる三見橋はいつ建設されたもの？(175)</t>
+    <rPh sb="3" eb="7">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>メガネバセィ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">ハシ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンセテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.萩地方では漁船を操る際に「ゴーヘイ」という言葉がよく用いられるが、これはどういう意味？(122)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョセn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アヤツル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.見島では正月に６畳から８畳分もある鬼の絵を描いた鬼ヨウズと呼ばれる凧をあげるが、その目的は？(3)</t>
+    <rPh sb="2" eb="4">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">オニ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エヲ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">タコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.見島では正月の間に口にしてはならない「忌み言葉」があるが、その中で「寝る」という言葉は何と言い換える？(4)</t>
+    <rPh sb="2" eb="4">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">イミ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ネル</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ナント </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イイカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.萩市内で節分の日の深夜、厄落としの目的で豆を歳の数ほど紙に包んだものを捨て置く場所はどこ？(5)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツブn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヤクオト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トシノ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツツンダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ステ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バセィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.かつて萩地方の端午の節句において、家紋を染め抜いた大漁旗状の旗を上げていたが、それをなんと呼ぶ？(10)</t>
+    <rPh sb="5" eb="8">
+      <t>ハギチホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タンゴ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セック</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カモn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ソメヌ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ハタ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハタヲ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アゲテ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">ヨブ」 </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.萩地方では旧暦8月1日に八朔の節句に様々なものを送り合っていたが、子どもの生まれた家に送ったものは何？(20)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セック</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">サマザマ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オクリアテ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウマレテ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イエニ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.天神祭において、川島地区から奉納される「聖」と呼ばれる山車の一種は、何人で担ぐ？(32)</t>
+    <rPh sb="2" eb="5">
+      <t>テンジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カワシマチク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">ヒジリ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ダシ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッセィウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナンニ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カツグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.萩地方では、初物を食べるときにある方角を向いて笑うという風習が伝えられているが、その方角は？(37)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ムイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワラウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツタエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ホウガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.阿武川や橋本川、松本川、三角州内の藍場川や新堀川に設けられた船着場を何と呼ぶ？(46)</t>
+    <rPh sb="2" eb="5">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハセィ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アイイロ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バセィオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">カワ </t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シンボリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モウケラレ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>フナテゥ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.萩城下町で寺院と墓が多いことから、萩の町には何が多いと言われた？(53)</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジイn</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハギノマチニ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イワレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.萩城下の町屋で、建具や柱、天井板などうに防腐防水処理のために塗ったものはどれ？(54)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マティ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タテグ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハシラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">イタ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ボウフ </t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ボウスイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヌッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.萩地方で花嫁が婚家に腰を落ち着けるようにと、婚礼の際に持ち込まれるものは何？(67)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コンヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コシヲ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オチツケ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コンレイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.萩地方で生児が親や祖母に連れられて初めて宮参りするのは、生後何日ごろ？(68)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヤヤ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツレラレ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジメテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミヤマイリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナンニティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.かつて萩地域では「全然」をどう発音していた？(75)</t>
+    <rPh sb="6" eb="9">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンゼn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツオn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.大井地区で「ほぼろをふる」とはどんな意味？(77)</t>
+    <rPh sb="3" eb="5">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.昔むつみ地域で竜巻に巻き込まれ2人の姫が亡くなったと言われる物語は何？(92)</t>
+    <rPh sb="3" eb="4">
+      <t>ムカセィ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マキコマレ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナクナッタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イワレ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.夏みかんは明治9年以前は果物ではなく、果汁を食用酢として使用したが、それは何と呼ばれた？(101)</t>
+    <rPh sb="3" eb="4">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>９ネn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クダモノ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナント</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヨバレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.萩地方でカタシと呼ぶある植物は、種から油を摂ることができる。このある植物とは？(107)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">トル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.県内有数のスイカの産地である相島では、連作に強いある植物にスイカの芽を接いで苗を作るが、そのある植物とは？(128)</t>
+    <rPh sb="3" eb="7">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンティ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>レンサ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツヨイアルショク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">メ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セッスル</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナエヲ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショクブテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.大島や相島では葉タバコやスイカの栽培が盛んになる前に、除虫菊の栽培が行われていた。この除虫菊は何に使われた？(129)</t>
+    <rPh sb="3" eb="5">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アイシマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハタバ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイバイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サカn</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジョチュウギク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイバイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナワレテイテ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツカワレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.手作りの味でよく知られていた「佐々並豆腐」。この豆腐を好んで食べたのは誰？(135)</t>
+    <rPh sb="3" eb="5">
+      <t>テヅクリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ササナミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ナミ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウヘゥ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コノンデ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19.江戸時代の萩焼は、地元でなんとよばれていた？(153)</t>
+    <rPh sb="3" eb="7">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハギヤ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジモトデナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20.国指定重要文化財熊谷家住宅の主屋の土間を何という？(164)</t>
+    <rPh sb="3" eb="4">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="4" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>k</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">オモヤ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.田万川地域の西堂寺にある県指定夕景文化財のお堂は上から見るとどんな形？(180)</t>
+    <rPh sb="3" eb="6">
+      <t>タマガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニセィ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ドウ </t>
+    </rPh>
+    <rPh sb="15" eb="23">
+      <t>ケンシテ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22.山口県内で萩市と同じ重要伝統的建造物群保存地区を持つ市はどこ？(188)</t>
+    <rPh sb="3" eb="7">
+      <t>ヤマグティ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="15" eb="22">
+      <t>デントウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">シ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23.萩焼の茶碗は、使用しているうちに色艶が少しずつ変化する。これを何という？(151)</t>
+    <rPh sb="3" eb="5">
+      <t>ハギヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ty</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スコシズテ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24.天神祭で市内古萩まちから奉納される大名行列に盛装乗馬の男児が付き添うが、これを何と呼ぶ？(31)</t>
+    <rPh sb="3" eb="5">
+      <t>テンジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マツリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>セイソウジョウバ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ダンジ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツキソイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.江戸時代、ある理由により絵の描いていない凧を上げるものではないとされていた。そのある理由とは？(51)</t>
+    <rPh sb="3" eb="7">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エノ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">タコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.萩地方で元旦に飲む大福(おおふく)と呼ぶ茶の中に入れるものは何？(1)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガンタn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダイフク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イレ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.かつて見島で用いていた「アブタヲクム」と言う言葉は何を意味する？(78)</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ミシマ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モティ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.10月初め、松本なかの倉の人丸神社秋祭りが執り行われる頃に出回り始める食べ物は何？ (44)</t>
+    <rPh sb="5" eb="6">
+      <t>ハジメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マツモト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">クラ </t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ヒトマル</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トリオコナワレルコル</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>デマワリハジメ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タベム</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.現在で言う竹馬を、江戸時代の萩では何と呼んでいた？(50)</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タケウマ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>エドジデ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.萩地方で用いられる椿の木の硬く、蜜な材質を活かした民具は何？(60)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツバキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">ミツ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ザイシテゥ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">イカシタ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ミング </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.萩城下における最後西国観音霊場巡りの最も古い記録は何年頃？(64)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メグリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フルイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ナンネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.越ヶ浜という地名の由来は何と言い伝えられている？(80)</t>
+    <rPh sb="2" eb="3">
+      <t>コセィ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユライ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナント</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イイツタエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.旭地域の佐々並にはむし風呂の原型である石風呂が残されている。この石風呂は焼いた石の上に何を敷いた？(85)</t>
+    <rPh sb="2" eb="3">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンケイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イシフロ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ノコサレ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>イセィ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヤイタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イセィ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.むつみ地域にある県天然記念物の辻山のシダレザクラが咲く場所は、誰の修行場跡？(93)</t>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ケン </t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>テンネn</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サクバセィオ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>b</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">アト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.平成16年の掘削により誕生した「はぎ温泉」はどこから湧出した？(98)</t>
+    <rPh sb="3" eb="5">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ホル </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケズル</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウシュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.明治時代の中頃、夏みかんは何個で米一升と同じ値だった？(100)</t>
+    <rPh sb="3" eb="7">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナンコデ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.割竹に圧力をかけて板状に伸展したものを用いた民具が作られていたが、それは何？(106)</t>
+    <rPh sb="3" eb="5">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イタジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンテn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モチイテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツクラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.萩地方では獲れた魚を入れる木箱をある漁法にちなみ「トロ箱」と呼ぶ。ある漁法とは？(123)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">トレタ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イレ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キバ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ギョホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ギョホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.市内の神社拝殿には鯨の髭を利用したあるものが掲げられているが、それは何？(118)</t>
+    <rPh sb="3" eb="5">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジンジャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイデn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クジラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ヒゲ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カカゲ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.福栄地域にはいくつか台地があるが、雲海を見ることができる台地はどこ？(136)</t>
+    <rPh sb="3" eb="4">
+      <t>フクエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サカエル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミルコテ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.旧萩藩校明倫館南門の板蟇股（いたかえるまた）に彫刻されている鳥は何？(167)</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハギハn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コウセィア</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>メイル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イタカエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョウコク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トリハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.萩城下の伝統的町屋では、一般的に表通りに面した部屋のことを何と呼ぶ？(191)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">デントウテキ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マチヤ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>イッパンテ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メンセィ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.越ヶ浜にはかつて上方と北陸・東北地方を行き来する船が回船が寄港していたが、この回船の世話する家を何と呼んでいた？(81)</t>
+    <rPh sb="3" eb="4">
+      <t>コセィ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>トウホク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イキキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイセn</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイセn</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">セワ </t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナn</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヨンデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19.夏みかんの皮を用いてマーマレードを作ることを思いつき、最初に試した人物は？(102)</t>
+    <rPh sb="3" eb="4">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツクル</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモイツイタ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイセィオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タメセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20.萩市の玉江と鶴江は、江戸時代鱶（ふか）を獲ることにおいて日本で先進地だったが、どの辺りまで出漁していた？(112)</t>
+    <rPh sb="3" eb="5">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツル</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>エドジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>🐣</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">トル </t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>センシn</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t xml:space="preserve">ギョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.かつて壱岐・対馬方面に出漁する萩地域の漁船で、岬や難所を公開する際に最若年乗組員が行っていたことは？(124)</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イキ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツシマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ギョセn</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミサキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナンセィオ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイジャク</t>
+    </rPh>
+    <rPh sb="38" eb="43">
+      <t>ジャクネn</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22.萩出身でフランスのナンシーに留学し、長門峡を全国に紹介したのは誰？(144)</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッセィ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リュウガク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>チョウモンキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23.江戸時代、萩藩に来た幕府の巡見使に対する公式答弁書に記されている萩藩の名物とは？(109)</t>
+    <rPh sb="3" eb="7">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハギハn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">キタ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バクヘゥ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュンケn</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミル</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイス</t>
+    </rPh>
+    <rPh sb="23" eb="28">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シルサレ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>メイブテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24.北の総門のように本柱が支える切妻屋根とは別に、控え柱上部にも小屋根をかける門の形式を何という？(174)</t>
+    <rPh sb="3" eb="4">
+      <t>キタノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ベツニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒカエ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>コヤネ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モンノ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.田万川地域には酒樽の形をした酒樽墓があり、この墓を3回まわって南に向かって腰を下ろし、何をすれば願いが叶うと言われている？(87)</t>
+    <rPh sb="3" eb="8">
+      <t>タマガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタティ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サカダル</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カイマワ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コセィ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オロセィ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カナウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イワレテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.見島では正月に６畳から８畳分もある鬼の絵を描いた鬼ヨウズと呼ばれる凧をあげるが、その目的は？(3)</t>
+    <rPh sb="2" eb="4">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">オニ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エヲ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">タコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.見島では正月の間に口にしてはならない「忌み言葉」があるが、その中で「寝る」という言葉は何と言い換える？(4)</t>
+    <rPh sb="2" eb="4">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">イミ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ネル</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ナント </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イイカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.むつみ地域の高佐下陰畑の「景(かげ)の河内(こうち)様」は、なんの神様？(7)</t>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">タカサ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シモカゲ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カワウティ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">サマ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カミサマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 大島で雛の節句を祝う際に、良縁に恵まれるようにと雛壇に供えるものは何？(11)</t>
+    <rPh sb="3" eb="5">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ヒナノ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セック</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イワウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リョウエンニメグ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒナダn</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ソナエ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.萩地方の端午の節句で、魔除けとして軒端に挿したり、屋根に上げたりしていたのは菖蒲と何？(12)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギチヘ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">タンゴ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セック</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マヨケ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ノキバ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サシタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.玉江や越ヶ浜の和船競走において、船尾の櫓(ろ)は船のどちらがえわの舷で漕ぐ？(15)</t>
+    <rPh sb="2" eb="4">
+      <t>タマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コセィ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ワセ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">センビ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ロ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フネノ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>GEN</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">コグ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.川島地区の聖奉納の関係者は、天神様の嫌いなものを現在でも飼わない。それは何？(33)</t>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">カワシマ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒジリ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>テンジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キライ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.萩地方の石工職人は、石材を割る際に用いられたクサビを何と呼んだ？(56)</t>
+    <rPh sb="2" eb="5">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>イシク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セキザ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ワル </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モチイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナントヨンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.大島や相島で黒松の幹と、5〜6方向に伸びる枝を利用して自作する背負籠を何と呼ぶ？(58)</t>
+    <rPh sb="2" eb="4">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイセィ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ミキ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ホウコウ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノビ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジサク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.かつて日本海を航海する回船などが須佐の高山を通過する際に行ったことは？(89)</t>
+    <rPh sb="10" eb="12">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">カイセン </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スサノ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウヤマ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.江戸時代、沿岸捕鯨が盛んだった山口県日本海側で、鯨が一頭獲れるといくつの浦(漁業集落)が潤った？(115)</t>
+    <rPh sb="3" eb="7">
+      <t>エドジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>エンガn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サカn</t>
+    </rPh>
+    <rPh sb="18" eb="25">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">トレルト </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">ウラ </t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ギョギョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウルオッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.田万川地域の小川は県下一の桃の産地であるが、栽培されていた中国産の桃の名前は？(130)</t>
+    <rPh sb="3" eb="6">
+      <t>タマガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ケンカ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>1</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モモノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンティ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイバイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モモノ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13.むつみ地域の開拓地、千石台は県内でもある野菜の有数の産地である。その野菜は？(132)</t>
+    <rPh sb="6" eb="8">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイタ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>センゴクダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サンティ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.福栄地域ではシクラメンの栽培が盛んであるが、シクラメンの標準和名は？(141)</t>
+    <rPh sb="3" eb="5">
+      <t>フクエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイバイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サカn</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ヒョウジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.森寛斎の養父である森撤山は、京都の有名な画家の高弟であるが、それは誰？(146)</t>
+    <rPh sb="3" eb="4">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ヒロシ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウヘゥ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">テツ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ヤマ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タカイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オトウト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.重要文化財常念寺表門の構造を何という？(161)</t>
+    <rPh sb="3" eb="8">
+      <t>14</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>j</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナントイウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17.市指定夕景文化財南明寺観音の屋根の形を何という？(169)</t>
+    <rPh sb="3" eb="6">
+      <t>シセィ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ユウケ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ナンミョウジク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタティ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.一般的な萩の町屋の形式はどれ？(186)</t>
+    <rPh sb="3" eb="6">
+      <t>イッパ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マティ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19.家のカドとはどういう意味？(193)　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20.伝統的町屋の奥に設けられた坪庭（中庭）は風を採り入れる以外にどのような機能がある？(190)</t>
+    <rPh sb="3" eb="8">
+      <t>デントウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モウケラレテ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカニ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トリイレ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トリイレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.刀の鍔で今の山口県下において制作されたものを何という？(149)</t>
+    <rPh sb="3" eb="4">
+      <t>カタナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツバ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22.萩地方に伝わる神楽舞の一部の演目において、舞手が失神状態になることがある。この状態を何と言う？(70)</t>
+    <rPh sb="3" eb="6">
+      <t>ハギティ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツタワル</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カグラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">マイテ </t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>シッシンジョウテ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23.相島では、裂いた古布を緯糸に使う裂織の作業着が作られていたが、これを何とよぶ？(59)</t>
+    <rPh sb="3" eb="5">
+      <t>アイセィ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フルヌノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サキオル</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツクラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24.旭地域で日本で一番最後まで行っていた珍しいことは何？(99)</t>
+    <rPh sb="3" eb="6">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニホンデ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>イチバn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナッテ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.阿武川ダムが建設される以前、三角州の海抜が低い一帯が持っていた重要な機能は？(108)</t>
+    <rPh sb="3" eb="6">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンセテゥ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイバ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒクイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モッテ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8626,13 +11151,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76418BB1-77B4-AB40-BFF3-508EC5F57A39}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="108.85546875" style="2" customWidth="1"/>
     <col min="2" max="4" width="40" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="106.140625" style="2" customWidth="1"/>
@@ -8680,1982 +11205,4142 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>530</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>502</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>254</v>
+        <v>503</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E71" s="1">
         <v>3</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E77" s="1">
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E78" s="1">
         <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E87" s="1">
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E88" s="1">
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E100" s="1">
         <v>2</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA26726-6254-FE4E-AF2F-AB7B44B2F3DF}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="2" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC907D5B-8AA3-B848-9468-B6935CF44239}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="77.28515625" customWidth="1"/>
+    <col min="2" max="4" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EABCBDF-078C-4F45-9E59-B26E2028541B}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="82" customWidth="1"/>
+    <col min="2" max="4" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9577E5-20BF-ED45-82B7-7D5EA70E3915}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="98" customWidth="1"/>
+    <col min="2" max="4" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
